--- a/output/fit_clients/fit_round_411.xlsx
+++ b/output/fit_clients/fit_round_411.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1575133245.008862</v>
+        <v>2118045623.216618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07594824887998873</v>
+        <v>0.08149397135415928</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03573466133598898</v>
+        <v>0.04267340127172512</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>787566561.0011557</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2437394133.729201</v>
+        <v>2014070065.600736</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1525643730318993</v>
+        <v>0.1804226341764189</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03676001756734712</v>
+        <v>0.03791038139803397</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1218697174.672392</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4737649302.620816</v>
+        <v>3800725567.964045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1358129284348724</v>
+        <v>0.1185203093761183</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0282548996679245</v>
+        <v>0.02931135211855325</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>148</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2368824717.753043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2930246339.118646</v>
+        <v>2687217915.691387</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06769220458612046</v>
+        <v>0.1091951460252991</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0388805290845667</v>
+        <v>0.05003969846523703</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>151</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1465123244.045821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1820678386.75908</v>
+        <v>2568059081.318628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1396098542677378</v>
+        <v>0.1044743704423782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05331046419771922</v>
+        <v>0.05017685762118249</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>910339242.3949916</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2886995215.905699</v>
+        <v>2947150248.136434</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08251047824200805</v>
+        <v>0.09236413588850524</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03287602843161003</v>
+        <v>0.04329997990437889</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>130</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1443497583.710536</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3954652648.48624</v>
+        <v>2743929797.467414</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1714260547640654</v>
+        <v>0.1751857541343149</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03166625819244584</v>
+        <v>0.0270540159041716</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>131</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1977326479.367482</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1573780365.951003</v>
+        <v>1997224253.00427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1333766050277499</v>
+        <v>0.1595454321838573</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02684831500078655</v>
+        <v>0.03503780396701125</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>786890268.7376146</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5040958432.741266</v>
+        <v>4337207424.783618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1321158290227855</v>
+        <v>0.1788768432961747</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03431262643944182</v>
+        <v>0.04783389403040942</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>173</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2520479318.850035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2963164459.37296</v>
+        <v>4247963483.063385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1543042462531665</v>
+        <v>0.1585423687527776</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04577215311651679</v>
+        <v>0.03443687531225766</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>170</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1481582170.062318</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2363720740.122865</v>
+        <v>2091509857.690067</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1987860252516877</v>
+        <v>0.1751251520889376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03654578036185649</v>
+        <v>0.04231507315487942</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>139</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1181860329.823379</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3335315050.852495</v>
+        <v>4856691708.022625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08952993348295241</v>
+        <v>0.08084063552684947</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02008204724453875</v>
+        <v>0.02861383381590236</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>138</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1667657614.131739</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3083170604.056228</v>
+        <v>3752955300.962539</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1365756276671695</v>
+        <v>0.1192050219882292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03175234992134257</v>
+        <v>0.03878637976107537</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>134</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1541585330.460914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1692464717.921384</v>
+        <v>1300511015.353092</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1008584210205114</v>
+        <v>0.07153998198622104</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04460467683195339</v>
+        <v>0.04087574586499496</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>846232488.1155983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2547133667.324593</v>
+        <v>1952741470.455477</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09903863189779953</v>
+        <v>0.0717132095643042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0464787524463523</v>
+        <v>0.04223495359242568</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1273566860.29625</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4762175430.362797</v>
+        <v>3631876084.543389</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1117319198281951</v>
+        <v>0.1508732892887123</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04221439827374888</v>
+        <v>0.03829055876449738</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2381087712.078929</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2758020063.855947</v>
+        <v>2991241514.981028</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1164329069978317</v>
+        <v>0.1227607727182864</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02209582416633065</v>
+        <v>0.02147796676387168</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>135</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1379010079.700036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>863282116.2279469</v>
+        <v>1373925080.19316</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1338830098466405</v>
+        <v>0.1848064218429738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01708283969461266</v>
+        <v>0.02631137874535068</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>431641054.1246357</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2202823800.837694</v>
+        <v>1815898198.247286</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1481005317259361</v>
+        <v>0.1130130682771772</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02904091638296446</v>
+        <v>0.03010556718528718</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1101411905.161039</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1836634059.386643</v>
+        <v>2164022354.13729</v>
       </c>
       <c r="F21" t="n">
-        <v>0.082718935153291</v>
+        <v>0.07492679462586259</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03036106295160754</v>
+        <v>0.02908631966625675</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>918317081.2860539</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3818723338.723156</v>
+        <v>3116309733.280176</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1118896647822549</v>
+        <v>0.100543482016535</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05151395798653649</v>
+        <v>0.03723263474818923</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>115</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1909361681.877944</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1531410428.238165</v>
+        <v>957003849.2574742</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1495128947236144</v>
+        <v>0.1858606536139276</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03470336984329991</v>
+        <v>0.05365703021756592</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>765705194.7722229</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3673796035.001284</v>
+        <v>3840711901.328743</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1451759336198919</v>
+        <v>0.1439791895770732</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03562454704440793</v>
+        <v>0.02453573739813911</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1836898007.448</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1455285187.2986</v>
+        <v>1442894100.397392</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09966154715512909</v>
+        <v>0.08837141497082855</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02549317686919682</v>
+        <v>0.01921056141396937</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>727642552.9194875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1354906052.721137</v>
+        <v>1397055057.480759</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09625066969766445</v>
+        <v>0.09875689673661209</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03661819897444352</v>
+        <v>0.03570823947205747</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>677453085.2936571</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4529593366.335592</v>
+        <v>3079510617.011425</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09906242369390865</v>
+        <v>0.113822276377328</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01975843854874179</v>
+        <v>0.01843794077805136</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2264796667.016563</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3594345064.21843</v>
+        <v>2927590795.501272</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1179545532689731</v>
+        <v>0.128450242065347</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04315535129716854</v>
+        <v>0.0345834629615215</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1797172594.969072</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3699408127.179245</v>
+        <v>4369352848.829609</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0911174625670733</v>
+        <v>0.144254857383974</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03934894642536185</v>
+        <v>0.04472324880527596</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>181</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1849704101.283242</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1732657854.788877</v>
+        <v>2132394075.38155</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1039942741674855</v>
+        <v>0.118344931496712</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02852412256188213</v>
+        <v>0.03659494531732286</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>866328934.420927</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1437436389.737777</v>
+        <v>1344217716.32563</v>
       </c>
       <c r="F31" t="n">
-        <v>0.103404896952899</v>
+        <v>0.1079140507967953</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04330162165514404</v>
+        <v>0.04775664007729823</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>718718090.4513258</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1797599474.529746</v>
+        <v>1424647674.163328</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09115087937894967</v>
+        <v>0.09719075600572598</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02363438883108721</v>
+        <v>0.02541569147092071</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>898799867.2664815</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2014096578.41043</v>
+        <v>2403773493.594646</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1702034912094369</v>
+        <v>0.1502604755370041</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04345063883792579</v>
+        <v>0.04404940441694502</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>124</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1007048368.81215</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1259229787.648897</v>
+        <v>1497942230.198623</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1022491111185229</v>
+        <v>0.1067492320516599</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02383832909398233</v>
+        <v>0.02556746734467141</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>629614889.1506497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1319702014.730305</v>
+        <v>1216133479.350454</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08584423527838284</v>
+        <v>0.1035481614074384</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03974702977259948</v>
+        <v>0.04423547257336095</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>659850955.8501142</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2937423913.765898</v>
+        <v>2949000157.132457</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1359820147759161</v>
+        <v>0.1326334295163039</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02753068920469479</v>
+        <v>0.02748657485621971</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>103</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1468711943.807202</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1977517921.558631</v>
+        <v>1946505288.966821</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1011832862200412</v>
+        <v>0.08490199605379628</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03238293311081628</v>
+        <v>0.04236744392052515</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>111</v>
-      </c>
-      <c r="J37" t="n">
-        <v>988758984.9774603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1331623156.274245</v>
+        <v>1673352013.242543</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1161136796876591</v>
+        <v>0.1095661895655927</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02737894223056827</v>
+        <v>0.02593130835174719</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>665811651.1913271</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1427961121.220483</v>
+        <v>2095810393.829703</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1939786267657524</v>
+        <v>0.1783132956212896</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02475162047612726</v>
+        <v>0.02989182171148717</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>713980641.9898925</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1765922659.572789</v>
+        <v>1406757601.558139</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1621539051512503</v>
+        <v>0.137856054281781</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03763199926348684</v>
+        <v>0.0470925847406814</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>882961229.4287958</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1770822882.775637</v>
+        <v>1893737552.39362</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1429551742154656</v>
+        <v>0.1489962870959246</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04409244632889906</v>
+        <v>0.04110968521078823</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>885411538.0617975</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2837120722.667311</v>
+        <v>4023578791.147253</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08191526137696914</v>
+        <v>0.08955802034331913</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02931034994829469</v>
+        <v>0.04061828312493088</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1418560310.564555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2275278355.942138</v>
+        <v>1898687604.968782</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1944001494227614</v>
+        <v>0.1547668215982035</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01646556284251249</v>
+        <v>0.02178531345695669</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>143</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1137639249.246306</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1660440540.661208</v>
+        <v>1649777007.969564</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09462176984284472</v>
+        <v>0.09428822657968144</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03240606844903965</v>
+        <v>0.0351038732710847</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>830220308.9336514</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2063314270.390966</v>
+        <v>2043863625.816808</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1716577444144996</v>
+        <v>0.1545373658216657</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04166409902834878</v>
+        <v>0.05088691871315151</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1031657132.498502</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5215628010.602307</v>
+        <v>4480125286.833223</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1424536359720781</v>
+        <v>0.1163529836228227</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04514095759557672</v>
+        <v>0.04515651295890469</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>146</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2607814044.460278</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3679020128.625171</v>
+        <v>3215222243.911167</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1733691478432886</v>
+        <v>0.1261373103976693</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04165523166053533</v>
+        <v>0.03911426588775098</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>110</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1839510045.283306</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4245218429.980243</v>
+        <v>4450586099.527935</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09401256781283553</v>
+        <v>0.1034650632982513</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03831022947038717</v>
+        <v>0.0261574658416936</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>135</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2122609235.109056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1721265757.575559</v>
+        <v>1851579507.573972</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1387810305768366</v>
+        <v>0.1656768588963382</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04213821790152031</v>
+        <v>0.0437994104910894</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>860632876.4278303</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3114213319.683654</v>
+        <v>2641115319.763526</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1138836062090559</v>
+        <v>0.1078310327021992</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03277975409528761</v>
+        <v>0.05334815329240786</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>141</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1557106711.563412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1042441016.992248</v>
+        <v>1126274180.45123</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1831959150154278</v>
+        <v>0.1237495018446452</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03340171021723479</v>
+        <v>0.05120439460887526</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>521220585.6019295</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3639042717.272899</v>
+        <v>4697683955.116972</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1084020517885682</v>
+        <v>0.106322846004118</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05947856452170339</v>
+        <v>0.04610028230591874</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>169</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1819521436.377125</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3401668605.41886</v>
+        <v>2946086578.243516</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1861313312639019</v>
+        <v>0.1867721227134729</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02973476131347269</v>
+        <v>0.03238812928662461</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1700834307.428338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4068565146.337228</v>
+        <v>4548682980.71536</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1263078075038112</v>
+        <v>0.1502077394393475</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04614304820436069</v>
+        <v>0.04183605898429634</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>134</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2034282642.653895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4410565900.541075</v>
+        <v>3235972415.30594</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1523506883269131</v>
+        <v>0.1921824824031245</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03048100283304457</v>
+        <v>0.0228428039386873</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2205282943.302941</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1273093443.353599</v>
+        <v>1196949620.663931</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1498644180240059</v>
+        <v>0.1375094293066678</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03804448794654035</v>
+        <v>0.05758703225479368</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>636546797.5791472</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4459209143.042286</v>
+        <v>3002727051.98282</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1635376574623655</v>
+        <v>0.1357101972013205</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02614982103887598</v>
+        <v>0.01693216997075538</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2229604698.45954</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1173623981.200021</v>
+        <v>1246344455.021711</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1528641214675324</v>
+        <v>0.1331993422377574</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03701467214966299</v>
+        <v>0.03107726840804259</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>586812051.5338681</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3379520438.599227</v>
+        <v>4461674751.051928</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1193329144427289</v>
+        <v>0.1106902583394367</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03331804085398632</v>
+        <v>0.0340338279840916</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>115</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1689760225.176898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3612119123.318766</v>
+        <v>3510169753.084898</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1321704221031507</v>
+        <v>0.1341770700900487</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02340103239071214</v>
+        <v>0.02651434565477497</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>128</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1806059696.231966</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2445243576.123991</v>
+        <v>3107643124.906808</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1609504671079947</v>
+        <v>0.1392255847184844</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02173161290508838</v>
+        <v>0.02267696883778616</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>141</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1222621820.86309</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1686040074.698999</v>
+        <v>1365051348.598743</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1276888518688545</v>
+        <v>0.1909362211406125</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03989411844536703</v>
+        <v>0.03532396852069342</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>843020048.3512541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3929628615.735827</v>
+        <v>4159675335.683563</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1000146198918965</v>
+        <v>0.07498898697718548</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03555780770967814</v>
+        <v>0.03043757459127603</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1964814373.396688</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4598419441.159011</v>
+        <v>4949166355.715628</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1582214437567194</v>
+        <v>0.1421793364511929</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03187469446121443</v>
+        <v>0.03034256274882641</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>128</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2299209798.549077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5549067075.070497</v>
+        <v>4585837216.51097</v>
       </c>
       <c r="F65" t="n">
-        <v>0.11993111247584</v>
+        <v>0.131494864690485</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02451726042266943</v>
+        <v>0.02793859241417947</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>147</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2774533463.680316</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4097317585.597872</v>
+        <v>3679291040.555725</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1588364790220393</v>
+        <v>0.1421923367252306</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04022291729763455</v>
+        <v>0.03218541368288447</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2048658771.593155</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2466397642.86586</v>
+        <v>3245840860.575587</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0940067926028588</v>
+        <v>0.1016806548873329</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03249411683325281</v>
+        <v>0.0480386231283363</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>132</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1233198884.858443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3689086310.358738</v>
+        <v>3905902560.049809</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1093583526874623</v>
+        <v>0.1430109662152833</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03968629453598001</v>
+        <v>0.0316300139778018</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1844543132.139131</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1971960048.947237</v>
+        <v>1535722876.457267</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1358156243204354</v>
+        <v>0.1364377205060187</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03647010058701407</v>
+        <v>0.04949539538399783</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>985980025.7975436</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2688928544.611303</v>
+        <v>3154285267.386258</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0835159664180971</v>
+        <v>0.08950947476988208</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04519337088841695</v>
+        <v>0.04466897669269173</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>117</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1344464229.045464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5569132290.199548</v>
+        <v>3635450586.183939</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1241151102687351</v>
+        <v>0.1316629286495701</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02759484696039581</v>
+        <v>0.02874203420574301</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>149</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2784566293.34314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1556823094.890913</v>
+        <v>2232367194.051995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.10092883018257</v>
+        <v>0.09874666179550746</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0486685964611637</v>
+        <v>0.03244182128190955</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>778411565.2974523</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2305887707.801949</v>
+        <v>2573018897.571935</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06870683434861365</v>
+        <v>0.08181430838016025</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03795181950629054</v>
+        <v>0.0518875717042212</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>156</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1152943913.462799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3012434192.75748</v>
+        <v>3261157924.950466</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1239060541449411</v>
+        <v>0.1544854102580913</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03027364235737159</v>
+        <v>0.02218412835986821</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>140</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1506217160.684685</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1811457305.766457</v>
+        <v>2321527364.716764</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1562835776574536</v>
+        <v>0.1014872891708155</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02624706096831323</v>
+        <v>0.02352676324394454</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>905728634.7587024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4143649480.64839</v>
+        <v>4940659977.498717</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09605246590332436</v>
+        <v>0.09524418569746414</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03161822802732417</v>
+        <v>0.02798517798554204</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2071824731.053369</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2138644185.372009</v>
+        <v>2237491357.114432</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1541698287074189</v>
+        <v>0.1139577668402569</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03160358399857302</v>
+        <v>0.0221306757925366</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1069322174.666763</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4662198015.974127</v>
+        <v>4445343375.939016</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09065815295969673</v>
+        <v>0.1207474906349619</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04386556189148379</v>
+        <v>0.05514779844853881</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>143</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2331098926.351302</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1299965812.449186</v>
+        <v>1290892566.846559</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1518845941002267</v>
+        <v>0.1233196728745538</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03417907784269543</v>
+        <v>0.0262161556522118</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>649982905.454734</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4820097976.450119</v>
+        <v>5407118366.377295</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1031426985150513</v>
+        <v>0.1102738930040519</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03735617383037131</v>
+        <v>0.02583565892774663</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>88</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2410049028.518329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3510002410.343959</v>
+        <v>4632848537.22307</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1203290192249836</v>
+        <v>0.09147461843026446</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02188301725508888</v>
+        <v>0.02340134343061615</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>95</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1755001150.206711</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3814160280.477678</v>
+        <v>4650700960.954634</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1559511632867382</v>
+        <v>0.1946413449666562</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02103606420178298</v>
+        <v>0.02531758200562144</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1907080190.391491</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2223886649.629979</v>
+        <v>2447931059.267478</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1549832237044518</v>
+        <v>0.1197299135002094</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03812919904855975</v>
+        <v>0.03599408896189527</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1111943338.035436</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2509245943.52085</v>
+        <v>2462239089.927885</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09614424340982768</v>
+        <v>0.1067814382981515</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03663820917954956</v>
+        <v>0.0358955255092424</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1254622902.211883</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3093525884.500522</v>
+        <v>2569416401.585524</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1373560142877642</v>
+        <v>0.1788852198915091</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03583254155769881</v>
+        <v>0.04952846994170072</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>155</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1546763012.76926</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2146794527.496534</v>
+        <v>2589071524.232453</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1244006206086166</v>
+        <v>0.1552103081548826</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02226449042771755</v>
+        <v>0.01697726204105594</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1073397311.810773</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1209612596.075775</v>
+        <v>1171769744.001051</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1682857254617779</v>
+        <v>0.1827402446262008</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03335250795593111</v>
+        <v>0.04369046239089532</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>604806356.1051805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3440015298.216597</v>
+        <v>3194617664.020515</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1663900397920372</v>
+        <v>0.1617959801975752</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04009112295336454</v>
+        <v>0.02816096287607994</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>162</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1720007723.051381</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2688163032.574856</v>
+        <v>2813042732.351483</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09934346923189383</v>
+        <v>0.1130946530943893</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02535820608600853</v>
+        <v>0.03266971252316297</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>139</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1344081577.26467</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2023877913.690519</v>
+        <v>1859747900.008048</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1048634688818672</v>
+        <v>0.1034539957931995</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04656363093416513</v>
+        <v>0.04446159569664477</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1011939031.448534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1427703785.963435</v>
+        <v>1394017194.591133</v>
       </c>
       <c r="F91" t="n">
-        <v>0.146780698508173</v>
+        <v>0.1809030056575124</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05937046226605334</v>
+        <v>0.04749663249212074</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>713851941.5341285</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2577192653.61107</v>
+        <v>2338766051.912509</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06985693689203519</v>
+        <v>0.0906429510460945</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03448187199778125</v>
+        <v>0.03215460669832387</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>119</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1288596316.594122</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4583679511.443645</v>
+        <v>3567062617.869982</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1311932306804203</v>
+        <v>0.1423719173381383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.047245448175846</v>
+        <v>0.04851680144842995</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2291839718.591774</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1844403661.528329</v>
+        <v>2235307842.343921</v>
       </c>
       <c r="F94" t="n">
-        <v>0.147641397162601</v>
+        <v>0.1576756966201086</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04133403834318421</v>
+        <v>0.03913332067357139</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>922201808.8650774</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3279925838.744298</v>
+        <v>2610402661.3316</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1375680608321886</v>
+        <v>0.1006254108553547</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04914228253973931</v>
+        <v>0.04198184636088673</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1639962898.74226</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1530550472.96313</v>
+        <v>1543960467.775707</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09936938696946793</v>
+        <v>0.09362468659347897</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04226572380934376</v>
+        <v>0.0451739712646579</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>765275273.6051989</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4764494353.722915</v>
+        <v>3945256231.937746</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1631691833596193</v>
+        <v>0.1201786668385068</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02587043758212018</v>
+        <v>0.02023152702593736</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>131</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2382247294.730377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2988009620.427517</v>
+        <v>3729897085.733708</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08618581135454145</v>
+        <v>0.1106075084431895</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02884858640129628</v>
+        <v>0.027715212198909</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1494004794.094224</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2723883452.020317</v>
+        <v>3353671028.81505</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1058849621233535</v>
+        <v>0.1392547711588445</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03491187539840466</v>
+        <v>0.02970405131257739</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1361941691.977495</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4324301308.864661</v>
+        <v>4287392663.397369</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1096532732140471</v>
+        <v>0.1755719640287781</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01817644153265276</v>
+        <v>0.02615999186097783</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>127</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2162150751.016432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3185810866.079951</v>
+        <v>3050150845.215135</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1993188253557503</v>
+        <v>0.2196968811026108</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05672459991537721</v>
+        <v>0.03654257575439392</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>165</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1592905546.672299</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_411.xlsx
+++ b/output/fit_clients/fit_round_411.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2118045623.216618</v>
+        <v>1553792275.419679</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08149397135415928</v>
+        <v>0.07627638708273288</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04267340127172512</v>
+        <v>0.03752379933870466</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2014070065.600736</v>
+        <v>2272782554.020316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1804226341764189</v>
+        <v>0.1335079371080964</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03791038139803397</v>
+        <v>0.04621221605681492</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3800725567.964045</v>
+        <v>4536193236.654973</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1185203093761183</v>
+        <v>0.1325039877507401</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02931135211855325</v>
+        <v>0.02437344298679235</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2687217915.691387</v>
+        <v>2955301716.935627</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1091951460252991</v>
+        <v>0.09169197771309739</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05003969846523703</v>
+        <v>0.03379475841481665</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2568059081.318628</v>
+        <v>2186819203.987053</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1044743704423782</v>
+        <v>0.1050010294368504</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05017685762118249</v>
+        <v>0.04002460027824065</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2947150248.136434</v>
+        <v>1982565762.882388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09236413588850524</v>
+        <v>0.06399751807791434</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04329997990437889</v>
+        <v>0.04730328545317063</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2743929797.467414</v>
+        <v>2967836748.032403</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1751857541343149</v>
+        <v>0.1693436898158774</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0270540159041716</v>
+        <v>0.02806538007136083</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1997224253.00427</v>
+        <v>1865733802.598239</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1595454321838573</v>
+        <v>0.163422251741461</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03503780396701125</v>
+        <v>0.02423366771614353</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4337207424.783618</v>
+        <v>3681042794.334178</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1788768432961747</v>
+        <v>0.1815455230800019</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04783389403040942</v>
+        <v>0.04915543198540073</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4247963483.063385</v>
+        <v>3994223528.371622</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1585423687527776</v>
+        <v>0.1295953247161951</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03443687531225766</v>
+        <v>0.04505308058179854</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2091509857.690067</v>
+        <v>3233080614.672838</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1751251520889376</v>
+        <v>0.1851990846356502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04231507315487942</v>
+        <v>0.04260058515581943</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4856691708.022625</v>
+        <v>3562959416.44089</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08084063552684947</v>
+        <v>0.07752727468560403</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02861383381590236</v>
+        <v>0.0289708540009725</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3752955300.962539</v>
+        <v>3160281326.187625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1192050219882292</v>
+        <v>0.1162116230511021</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03878637976107537</v>
+        <v>0.03586623805643877</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1300511015.353092</v>
+        <v>1607018318.053937</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07153998198622104</v>
+        <v>0.07854372954833055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04087574586499496</v>
+        <v>0.04356597189492781</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1952741470.455477</v>
+        <v>2610106031.820355</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0717132095643042</v>
+        <v>0.1026234446217245</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04223495359242568</v>
+        <v>0.03376294788921123</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3631876084.543389</v>
+        <v>4097164580.289739</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1508732892887123</v>
+        <v>0.1721214194450491</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03829055876449738</v>
+        <v>0.03418063715805193</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2991241514.981028</v>
+        <v>3296456189.674285</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1227607727182864</v>
+        <v>0.1449500339447506</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02147796676387168</v>
+        <v>0.03378293245969045</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1373925080.19316</v>
+        <v>878525984.1435168</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1848064218429738</v>
+        <v>0.1526555241445033</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02631137874535068</v>
+        <v>0.01696528332382856</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1815898198.247286</v>
+        <v>2418098975.235623</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1130130682771772</v>
+        <v>0.1072165902968364</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03010556718528718</v>
+        <v>0.0310682994919778</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2164022354.13729</v>
+        <v>2063846223.922467</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07492679462586259</v>
+        <v>0.07935407512614394</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02908631966625675</v>
+        <v>0.03819231760349976</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3116309733.280176</v>
+        <v>3338543104.461019</v>
       </c>
       <c r="F22" t="n">
-        <v>0.100543482016535</v>
+        <v>0.1433092666521528</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03723263474818923</v>
+        <v>0.05341889604796395</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>957003849.2574742</v>
+        <v>943623822.0817218</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1858606536139276</v>
+        <v>0.1315338875936015</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05365703021756592</v>
+        <v>0.03552449413184884</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3840711901.328743</v>
+        <v>3278679506.463815</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1439791895770732</v>
+        <v>0.1078222863101878</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02453573739813911</v>
+        <v>0.03151989633169786</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1442894100.397392</v>
+        <v>1369344682.836227</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08837141497082855</v>
+        <v>0.07653236655693986</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01921056141396937</v>
+        <v>0.02109779534286785</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1397055057.480759</v>
+        <v>976837823.0165615</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09875689673661209</v>
+        <v>0.1141979166433949</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03570823947205747</v>
+        <v>0.03134361682796941</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3079510617.011425</v>
+        <v>3624493655.824954</v>
       </c>
       <c r="F27" t="n">
-        <v>0.113822276377328</v>
+        <v>0.1246231825547812</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01843794077805136</v>
+        <v>0.02708555888775629</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2927590795.501272</v>
+        <v>3851495923.964785</v>
       </c>
       <c r="F28" t="n">
-        <v>0.128450242065347</v>
+        <v>0.1305775811012014</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0345834629615215</v>
+        <v>0.03890909297837958</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4369352848.829609</v>
+        <v>5943654311.251963</v>
       </c>
       <c r="F29" t="n">
-        <v>0.144254857383974</v>
+        <v>0.1380074412525206</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04472324880527596</v>
+        <v>0.04397652556401618</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2132394075.38155</v>
+        <v>1892195795.302536</v>
       </c>
       <c r="F30" t="n">
-        <v>0.118344931496712</v>
+        <v>0.1187680896618642</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03659494531732286</v>
+        <v>0.03337279991987692</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1344217716.32563</v>
+        <v>908462838.0205996</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1079140507967953</v>
+        <v>0.09165134535283669</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04775664007729823</v>
+        <v>0.03558742628834603</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1424647674.163328</v>
+        <v>1742585660.048928</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09719075600572598</v>
+        <v>0.08580311624262681</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02541569147092071</v>
+        <v>0.03083236844715787</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2403773493.594646</v>
+        <v>2505562319.662938</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1502604755370041</v>
+        <v>0.1835523805308582</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04404940441694502</v>
+        <v>0.05467536603318354</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1497942230.198623</v>
+        <v>1402867772.640057</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1067492320516599</v>
+        <v>0.092504504635551</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02556746734467141</v>
+        <v>0.01897361767897362</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1216133479.350454</v>
+        <v>1360256639.968035</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1035481614074384</v>
+        <v>0.1182936294933506</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04423547257336095</v>
+        <v>0.04289649720866116</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2949000157.132457</v>
+        <v>2037725913.237358</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1326334295163039</v>
+        <v>0.1177605250492598</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02748657485621971</v>
+        <v>0.01842396637267799</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1946505288.966821</v>
+        <v>2324249166.508565</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08490199605379628</v>
+        <v>0.09030266978782978</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04236744392052515</v>
+        <v>0.04198743042765976</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1673352013.242543</v>
+        <v>2156544983.253345</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1095661895655927</v>
+        <v>0.09902156807753368</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02593130835174719</v>
+        <v>0.02565980013443441</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2095810393.829703</v>
+        <v>2199133423.280363</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1783132956212896</v>
+        <v>0.1305286242099831</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02989182171148717</v>
+        <v>0.02403531520802873</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1406757601.558139</v>
+        <v>1312486406.212527</v>
       </c>
       <c r="F40" t="n">
-        <v>0.137856054281781</v>
+        <v>0.1363246778710409</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0470925847406814</v>
+        <v>0.05075969881979062</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1893737552.39362</v>
+        <v>2405959102.194275</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1489962870959246</v>
+        <v>0.1114899483929298</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04110968521078823</v>
+        <v>0.03045407191214288</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4023578791.147253</v>
+        <v>3502312747.831768</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08955802034331913</v>
+        <v>0.08735412404561331</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04061828312493088</v>
+        <v>0.02970923944093495</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1898687604.968782</v>
+        <v>3052303781.503853</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1547668215982035</v>
+        <v>0.1985681302320439</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02178531345695669</v>
+        <v>0.02289468801640887</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1649777007.969564</v>
+        <v>1642413338.353337</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09428822657968144</v>
+        <v>0.09545725098465942</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0351038732710847</v>
+        <v>0.03646923309754368</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2043863625.816808</v>
+        <v>1538925920.441437</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1545373658216657</v>
+        <v>0.1781770512378175</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05088691871315151</v>
+        <v>0.05293425722683665</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4480125286.833223</v>
+        <v>3446782810.681994</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1163529836228227</v>
+        <v>0.1498968510053789</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04515651295890469</v>
+        <v>0.06094611420045586</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3215222243.911167</v>
+        <v>4106217064.465218</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1261373103976693</v>
+        <v>0.1914938070175096</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03911426588775098</v>
+        <v>0.04814076486566485</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4450586099.527935</v>
+        <v>4366427060.741181</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1034650632982513</v>
+        <v>0.1015903662253486</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0261574658416936</v>
+        <v>0.02381379391073322</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1851579507.573972</v>
+        <v>1470845933.658788</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1656768588963382</v>
+        <v>0.1297863738419788</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0437994104910894</v>
+        <v>0.03214396103297371</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2641115319.763526</v>
+        <v>3134260228.904885</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1078310327021992</v>
+        <v>0.1575903315086715</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05334815329240786</v>
+        <v>0.03497861116027881</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1126274180.45123</v>
+        <v>1155710132.270612</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1237495018446452</v>
+        <v>0.1898750979960875</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05120439460887526</v>
+        <v>0.03372051826302271</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4697683955.116972</v>
+        <v>5072380835.91091</v>
       </c>
       <c r="F52" t="n">
-        <v>0.106322846004118</v>
+        <v>0.1016564867938774</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04610028230591874</v>
+        <v>0.0572965426810612</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2946086578.243516</v>
+        <v>2645737250.103488</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1867721227134729</v>
+        <v>0.156001889479402</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03238812928662461</v>
+        <v>0.02591724507444103</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4548682980.71536</v>
+        <v>3208224468.833673</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1502077394393475</v>
+        <v>0.1208762428542253</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04183605898429634</v>
+        <v>0.03264188836885813</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3235972415.30594</v>
+        <v>4202501277.066278</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1921824824031245</v>
+        <v>0.1732114476073457</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0228428039386873</v>
+        <v>0.02684646725578146</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1196949620.663931</v>
+        <v>1891893471.447684</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1375094293066678</v>
+        <v>0.1605142798529387</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05758703225479368</v>
+        <v>0.04023315549821411</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3002727051.98282</v>
+        <v>3109988713.324016</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1357101972013205</v>
+        <v>0.1192935904197812</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01693216997075538</v>
+        <v>0.01820128803922775</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1246344455.021711</v>
+        <v>1171474197.047006</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1331993422377574</v>
+        <v>0.1522895499430847</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03107726840804259</v>
+        <v>0.0287113089651069</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4461674751.051928</v>
+        <v>5315755054.227125</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1106902583394367</v>
+        <v>0.1044773020776448</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0340338279840916</v>
+        <v>0.04423480375248113</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3510169753.084898</v>
+        <v>3227134680.779655</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1341770700900487</v>
+        <v>0.162440658067097</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02651434565477497</v>
+        <v>0.02355181433355669</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3107643124.906808</v>
+        <v>2655526572.469163</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1392255847184844</v>
+        <v>0.1363622822979121</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02267696883778616</v>
+        <v>0.03085379053085347</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1365051348.598743</v>
+        <v>1817454709.279495</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1909362211406125</v>
+        <v>0.1900746904778645</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03532396852069342</v>
+        <v>0.04512430039775858</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4159675335.683563</v>
+        <v>5252934877.009074</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07498898697718548</v>
+        <v>0.1040698315484911</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03043757459127603</v>
+        <v>0.03897240595888175</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4949166355.715628</v>
+        <v>5210784717.255196</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1421793364511929</v>
+        <v>0.1832109770261743</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03034256274882641</v>
+        <v>0.02146730625755561</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4585837216.51097</v>
+        <v>5374523324.037751</v>
       </c>
       <c r="F65" t="n">
-        <v>0.131494864690485</v>
+        <v>0.1182318066541328</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02793859241417947</v>
+        <v>0.0240791497368141</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3679291040.555725</v>
+        <v>4804427302.617998</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1421923367252306</v>
+        <v>0.1436112544227979</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03218541368288447</v>
+        <v>0.04169289404947779</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3245840860.575587</v>
+        <v>2610844601.141881</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1016806548873329</v>
+        <v>0.08494317065057147</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0480386231283363</v>
+        <v>0.04014775405723273</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3905902560.049809</v>
+        <v>5402225140.614367</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1430109662152833</v>
+        <v>0.1105146509369465</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0316300139778018</v>
+        <v>0.04234605999601831</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1535722876.457267</v>
+        <v>2343712421.207638</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1364377205060187</v>
+        <v>0.1350505479888722</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04949539538399783</v>
+        <v>0.05866356518454357</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3154285267.386258</v>
+        <v>3427259682.223578</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08950947476988208</v>
+        <v>0.06224350917356671</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04466897669269173</v>
+        <v>0.03178559111950756</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3635450586.183939</v>
+        <v>3861266020.986774</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1316629286495701</v>
+        <v>0.1736371519732685</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02874203420574301</v>
+        <v>0.03199973413562145</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2232367194.051995</v>
+        <v>1441335206.798389</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09874666179550746</v>
+        <v>0.1000469062132456</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03244182128190955</v>
+        <v>0.05020730269619553</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2573018897.571935</v>
+        <v>3165847160.962753</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08181430838016025</v>
+        <v>0.09210994491170328</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0518875717042212</v>
+        <v>0.03997396512558706</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3261157924.950466</v>
+        <v>2864037407.337984</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1544854102580913</v>
+        <v>0.1123663881434967</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02218412835986821</v>
+        <v>0.02343725961436684</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2321527364.716764</v>
+        <v>2340546597.254079</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1014872891708155</v>
+        <v>0.1206805237848597</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02352676324394454</v>
+        <v>0.03153056829769098</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4940659977.498717</v>
+        <v>3295741909.985842</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09524418569746414</v>
+        <v>0.1242040975845356</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02798517798554204</v>
+        <v>0.02116186341177546</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2237491357.114432</v>
+        <v>2168460866.356073</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1139577668402569</v>
+        <v>0.1872075477029539</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0221306757925366</v>
+        <v>0.02781736104077681</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4445343375.939016</v>
+        <v>4146969302.941</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1207474906349619</v>
+        <v>0.1210447114844603</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05514779844853881</v>
+        <v>0.04259222611126898</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1290892566.846559</v>
+        <v>1701386954.750348</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1233196728745538</v>
+        <v>0.1735339398647089</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0262161556522118</v>
+        <v>0.03948847725290729</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5407118366.377295</v>
+        <v>5330511681.912604</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1102738930040519</v>
+        <v>0.0838383735901586</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02583565892774663</v>
+        <v>0.02826392021514736</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4632848537.22307</v>
+        <v>4515260785.918479</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09147461843026446</v>
+        <v>0.1250307796817403</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02340134343061615</v>
+        <v>0.02749971404920606</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4650700960.954634</v>
+        <v>4232479334.730918</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1946413449666562</v>
+        <v>0.1932907172512759</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02531758200562144</v>
+        <v>0.0269463387540263</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2447931059.267478</v>
+        <v>2200290459.308691</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1197299135002094</v>
+        <v>0.1537910537874769</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03599408896189527</v>
+        <v>0.04150694001962382</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2462239089.927885</v>
+        <v>1590515318.400531</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1067814382981515</v>
+        <v>0.09625342279450308</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0358955255092424</v>
+        <v>0.03680362052865213</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2569416401.585524</v>
+        <v>3552595271.090741</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1788852198915091</v>
+        <v>0.1150047551120135</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04952846994170072</v>
+        <v>0.05054726746957893</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2589071524.232453</v>
+        <v>2561536279.138453</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1552103081548826</v>
+        <v>0.1638423240869418</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01697726204105594</v>
+        <v>0.02086727900378263</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1171769744.001051</v>
+        <v>1181824365.401782</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1827402446262008</v>
+        <v>0.1421959880511709</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04369046239089532</v>
+        <v>0.03795477774587053</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3194617664.020515</v>
+        <v>2639381395.725163</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1617959801975752</v>
+        <v>0.1429509771777993</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02816096287607994</v>
+        <v>0.02729675664172767</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2813042732.351483</v>
+        <v>2497877058.667997</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1130946530943893</v>
+        <v>0.1225716514005167</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03266971252316297</v>
+        <v>0.03064828452280447</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1859747900.008048</v>
+        <v>1876019735.262699</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1034539957931995</v>
+        <v>0.1329513318041364</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04446159569664477</v>
+        <v>0.04455745937912182</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1394017194.591133</v>
+        <v>1966374605.445148</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1809030056575124</v>
+        <v>0.133461186550079</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04749663249212074</v>
+        <v>0.0602724198848844</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2338766051.912509</v>
+        <v>2235567588.227502</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0906429510460945</v>
+        <v>0.09853233151134992</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03215460669832387</v>
+        <v>0.03136391036912402</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3567062617.869982</v>
+        <v>4062326807.469109</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1423719173381383</v>
+        <v>0.1186713177602705</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04851680144842995</v>
+        <v>0.03841872214175347</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2235307842.343921</v>
+        <v>1799237971.232404</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1576756966201086</v>
+        <v>0.1061309627086453</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03913332067357139</v>
+        <v>0.02720869283066024</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2610402661.3316</v>
+        <v>2509517954.268881</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1006254108553547</v>
+        <v>0.09429073605346143</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04198184636088673</v>
+        <v>0.04155705736687883</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1543960467.775707</v>
+        <v>2256069231.716148</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09362468659347897</v>
+        <v>0.09439983012553342</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0451739712646579</v>
+        <v>0.036706727596613</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3945256231.937746</v>
+        <v>3483305344.181144</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1201786668385068</v>
+        <v>0.1239537562264875</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02023152702593736</v>
+        <v>0.02821954559906613</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3729897085.733708</v>
+        <v>2845813547.31182</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1106075084431895</v>
+        <v>0.1054694690727662</v>
       </c>
       <c r="G98" t="n">
-        <v>0.027715212198909</v>
+        <v>0.02621914789675629</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3353671028.81505</v>
+        <v>2276422264.973208</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1392547711588445</v>
+        <v>0.09684382692034697</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02970405131257739</v>
+        <v>0.03362010539043467</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4287392663.397369</v>
+        <v>4624742286.963399</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1755719640287781</v>
+        <v>0.1441360283269265</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02615999186097783</v>
+        <v>0.01906520386848952</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3050150845.215135</v>
+        <v>2533231471.712942</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2196968811026108</v>
+        <v>0.2057251319449561</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03654257575439392</v>
+        <v>0.04594821849550603</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_411.xlsx
+++ b/output/fit_clients/fit_round_411.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1553792275.419679</v>
+        <v>2490572575.556993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07627638708273288</v>
+        <v>0.1062772108418611</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03752379933870466</v>
+        <v>0.03175610370356968</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2272782554.020316</v>
+        <v>2263173474.539169</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1335079371080964</v>
+        <v>0.1518810889250562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04621221605681492</v>
+        <v>0.03610982927062044</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4536193236.654973</v>
+        <v>4760070376.261601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1325039877507401</v>
+        <v>0.1048822286930425</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02437344298679235</v>
+        <v>0.02688316786247824</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>208</v>
+      </c>
+      <c r="J4" t="n">
+        <v>411</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2955301716.935627</v>
+        <v>4114313302.948126</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09169197771309739</v>
+        <v>0.0921908667204334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03379475841481665</v>
+        <v>0.03909296799604126</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>168</v>
+      </c>
+      <c r="J5" t="n">
+        <v>411</v>
+      </c>
+      <c r="K5" t="n">
+        <v>55.60841137592715</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2186819203.987053</v>
+        <v>2720083972.828427</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1050010294368504</v>
+        <v>0.1314527317935398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04002460027824065</v>
+        <v>0.0450708572551228</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1982565762.882388</v>
+        <v>2075669720.040309</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06399751807791434</v>
+        <v>0.08935888488162995</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04730328545317063</v>
+        <v>0.04890363860434839</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2967836748.032403</v>
+        <v>2561723984.341703</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1693436898158774</v>
+        <v>0.1820044793211308</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02806538007136083</v>
+        <v>0.0269348360371463</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>112</v>
+      </c>
+      <c r="J8" t="n">
+        <v>409</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1865733802.598239</v>
+        <v>1924382299.169336</v>
       </c>
       <c r="F9" t="n">
-        <v>0.163422251741461</v>
+        <v>0.1307494059137512</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02423366771614353</v>
+        <v>0.02439529795525276</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3681042794.334178</v>
+        <v>4875243938.045628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1815455230800019</v>
+        <v>0.1787710892272271</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04915543198540073</v>
+        <v>0.04615450155029734</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>330</v>
+      </c>
+      <c r="J10" t="n">
+        <v>410</v>
+      </c>
+      <c r="K10" t="n">
+        <v>42.85044842722742</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3994223528.371622</v>
+        <v>4003476101.438864</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1295953247161951</v>
+        <v>0.1915542922823139</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04505308058179854</v>
+        <v>0.04618104686599138</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>171</v>
+      </c>
+      <c r="J11" t="n">
+        <v>411</v>
+      </c>
+      <c r="K11" t="n">
+        <v>52.91151812280355</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3233080614.672838</v>
+        <v>2657050230.555233</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1851990846356502</v>
+        <v>0.1568257713693157</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04260058515581943</v>
+        <v>0.05129089000041384</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3562959416.44089</v>
+        <v>4259686932.768842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07752727468560403</v>
+        <v>0.08441928039762711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0289708540009725</v>
+        <v>0.02778641012922089</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>214</v>
+      </c>
+      <c r="J13" t="n">
+        <v>411</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3160281326.187625</v>
+        <v>3399509804.955743</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1162116230511021</v>
+        <v>0.1304907113814539</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03586623805643877</v>
+        <v>0.0345589940241477</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1607018318.053937</v>
+        <v>1828125640.561379</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07854372954833055</v>
+        <v>0.08269942188314879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04356597189492781</v>
+        <v>0.04255785866666075</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2610106031.820355</v>
+        <v>2285260936.273978</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1026234446217245</v>
+        <v>0.08844397516146518</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03376294788921123</v>
+        <v>0.04414435252618897</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4097164580.289739</v>
+        <v>4452982404.971641</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1721214194450491</v>
+        <v>0.172282958995912</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03418063715805193</v>
+        <v>0.04057337190124153</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>198</v>
+      </c>
+      <c r="J17" t="n">
+        <v>411</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3296456189.674285</v>
+        <v>3920058359.266575</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1449500339447506</v>
+        <v>0.1619641531565551</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03378293245969045</v>
+        <v>0.03345245781204498</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>104</v>
+      </c>
+      <c r="J18" t="n">
+        <v>411</v>
+      </c>
+      <c r="K18" t="n">
+        <v>62.53098275799371</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>878525984.1435168</v>
+        <v>1113762572.564088</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1526555241445033</v>
+        <v>0.1243119318648482</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01696528332382856</v>
+        <v>0.01776385430521706</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2418098975.235623</v>
+        <v>2418141458.061519</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1072165902968364</v>
+        <v>0.1117112838384827</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0310682994919778</v>
+        <v>0.02243201835630351</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2063846223.922467</v>
+        <v>2545330743.414322</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07935407512614394</v>
+        <v>0.1019573774533478</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03819231760349976</v>
+        <v>0.03601869098241754</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3338543104.461019</v>
+        <v>2772665022.561659</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1433092666521528</v>
+        <v>0.1107481998476087</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05341889604796395</v>
+        <v>0.03639157637314117</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>114</v>
+      </c>
+      <c r="J22" t="n">
+        <v>407</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>943623822.0817218</v>
+        <v>1535314374.821945</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1315338875936015</v>
+        <v>0.1353514843607156</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03552449413184884</v>
+        <v>0.03659187685657769</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3278679506.463815</v>
+        <v>3159822686.711231</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1078222863101878</v>
+        <v>0.09752267793274669</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03151989633169786</v>
+        <v>0.03254396934919652</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>129</v>
+      </c>
+      <c r="J24" t="n">
+        <v>410</v>
+      </c>
+      <c r="K24" t="n">
+        <v>36.98369631597261</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1369344682.836227</v>
+        <v>1068779544.200855</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07653236655693986</v>
+        <v>0.09444010284331551</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02109779534286785</v>
+        <v>0.01866022568775835</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>976837823.0165615</v>
+        <v>1030167147.4907</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1141979166433949</v>
+        <v>0.08883477068446341</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03134361682796941</v>
+        <v>0.0314672314271519</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3624493655.824954</v>
+        <v>3179886701.209443</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1246231825547812</v>
+        <v>0.0983024181030647</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02708555888775629</v>
+        <v>0.01718072799397893</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>174</v>
+      </c>
+      <c r="J27" t="n">
+        <v>410</v>
+      </c>
+      <c r="K27" t="n">
+        <v>36.19625550740047</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1417,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3851495923.964785</v>
+        <v>2812164452.606894</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1305775811012014</v>
+        <v>0.103549872980745</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03890909297837958</v>
+        <v>0.04652315892695563</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>101</v>
+      </c>
+      <c r="J28" t="n">
+        <v>410</v>
+      </c>
+      <c r="K28" t="n">
+        <v>36.84625381166298</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5943654311.251963</v>
+        <v>5279245518.446124</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1380074412525206</v>
+        <v>0.1275070297471984</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04397652556401618</v>
+        <v>0.04104796075126488</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>345</v>
+      </c>
+      <c r="J29" t="n">
+        <v>411</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1892195795.302536</v>
+        <v>2346258903.906373</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1187680896618642</v>
+        <v>0.1017283473177666</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03337279991987692</v>
+        <v>0.03433533647615263</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>908462838.0205996</v>
+        <v>1082001488.220888</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09165134535283669</v>
+        <v>0.1092338786586276</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03558742628834603</v>
+        <v>0.03450137180465906</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1742585660.048928</v>
+        <v>1360774098.363408</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08580311624262681</v>
+        <v>0.08200041060854756</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03083236844715787</v>
+        <v>0.03836248695614722</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2505562319.662938</v>
+        <v>2347675505.105177</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1835523805308582</v>
+        <v>0.166705453025893</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05467536603318354</v>
+        <v>0.06066054866645956</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1402867772.640057</v>
+        <v>1471890587.795778</v>
       </c>
       <c r="F34" t="n">
-        <v>0.092504504635551</v>
+        <v>0.0945172487145778</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01897361767897362</v>
+        <v>0.02427111527782636</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1360256639.968035</v>
+        <v>842515341.8314456</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1182936294933506</v>
+        <v>0.0984597153908619</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04289649720866116</v>
+        <v>0.03132974497569409</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2037725913.237358</v>
+        <v>2177005170.730874</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1177605250492598</v>
+        <v>0.1784969872026826</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01842396637267799</v>
+        <v>0.0217742753177219</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2324249166.508565</v>
+        <v>1876914642.454273</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09030266978782978</v>
+        <v>0.08295231678830678</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04198743042765976</v>
+        <v>0.03014726001043962</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2156544983.253345</v>
+        <v>1772858350.811793</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09902156807753368</v>
+        <v>0.1047593614089379</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02565980013443441</v>
+        <v>0.03754254265496836</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2199133423.280363</v>
+        <v>1961612109.32281</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1305286242099831</v>
+        <v>0.168293761489413</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02403531520802873</v>
+        <v>0.02879876537396802</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1312486406.212527</v>
+        <v>1651094371.827523</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1363246778710409</v>
+        <v>0.1421708719892697</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05075969881979062</v>
+        <v>0.04039531179900958</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2405959102.194275</v>
+        <v>2365830626.502403</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1114899483929298</v>
+        <v>0.1596257307411095</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03045407191214288</v>
+        <v>0.04415648694514013</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3502312747.831768</v>
+        <v>3398586936.598128</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08735412404561331</v>
+        <v>0.095748464784864</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02970923944093495</v>
+        <v>0.03922182607601913</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>177</v>
+      </c>
+      <c r="J42" t="n">
+        <v>409</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3052303781.503853</v>
+        <v>1945300912.867435</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1985681302320439</v>
+        <v>0.1611287374827353</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02289468801640887</v>
+        <v>0.02301951607676589</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1642413338.353337</v>
+        <v>1600324047.48427</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09545725098465942</v>
+        <v>0.08536155236974685</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03646923309754368</v>
+        <v>0.02833890455414413</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1538925920.441437</v>
+        <v>2371326411.587932</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1781770512378175</v>
+        <v>0.1178723688198886</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05293425722683665</v>
+        <v>0.05441822726039228</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3446782810.681994</v>
+        <v>5283790465.738894</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1498968510053789</v>
+        <v>0.1741661622713654</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06094611420045586</v>
+        <v>0.05726831325090734</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>247</v>
+      </c>
+      <c r="J46" t="n">
+        <v>410</v>
+      </c>
+      <c r="K46" t="n">
+        <v>44.53227117532301</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4106217064.465218</v>
+        <v>3981581272.4062</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1914938070175096</v>
+        <v>0.1380085771958009</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04814076486566485</v>
+        <v>0.04374906419027155</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>184</v>
+      </c>
+      <c r="J47" t="n">
+        <v>411</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4366427060.741181</v>
+        <v>4406848717.681249</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1015903662253486</v>
+        <v>0.07693133221915446</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02381379391073322</v>
+        <v>0.03905044163864688</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>211</v>
+      </c>
+      <c r="J48" t="n">
+        <v>411</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1470845933.658788</v>
+        <v>1738193694.221863</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1297863738419788</v>
+        <v>0.1368598966481444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03214396103297371</v>
+        <v>0.0403743003453736</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3134260228.904885</v>
+        <v>3420403171.923357</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1575903315086715</v>
+        <v>0.117229397475362</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03497861116027881</v>
+        <v>0.05228944236733001</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>142</v>
+      </c>
+      <c r="J50" t="n">
+        <v>409</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1155710132.270612</v>
+        <v>1391349260.401957</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1898750979960875</v>
+        <v>0.1646431194911079</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03372051826302271</v>
+        <v>0.05397478674593653</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5072380835.91091</v>
+        <v>3405537076.937525</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1016564867938774</v>
+        <v>0.1195203560930484</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0572965426810612</v>
+        <v>0.04805537761526399</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>238</v>
+      </c>
+      <c r="J52" t="n">
+        <v>410</v>
+      </c>
+      <c r="K52" t="n">
+        <v>37.95048780546781</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2304,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2645737250.103488</v>
+        <v>2440411617.057846</v>
       </c>
       <c r="F53" t="n">
-        <v>0.156001889479402</v>
+        <v>0.1635615579421228</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02591724507444103</v>
+        <v>0.03138388810375226</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>59</v>
+      </c>
+      <c r="J53" t="n">
+        <v>410</v>
+      </c>
+      <c r="K53" t="n">
+        <v>31.09971383710995</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3208224468.833673</v>
+        <v>3440768486.893097</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1208762428542253</v>
+        <v>0.1673657600120078</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03264188836885813</v>
+        <v>0.05065357908081319</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>219</v>
+      </c>
+      <c r="J54" t="n">
+        <v>408</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4202501277.066278</v>
+        <v>3869842809.603699</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1732114476073457</v>
+        <v>0.1562154850611564</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02684646725578146</v>
+        <v>0.03219198911245503</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>202</v>
+      </c>
+      <c r="J55" t="n">
+        <v>411</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1891893471.447684</v>
+        <v>1670513192.360885</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1605142798529387</v>
+        <v>0.1617371548108872</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04023315549821411</v>
+        <v>0.04931409550530411</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3109988713.324016</v>
+        <v>3612601482.938624</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1192935904197812</v>
+        <v>0.1337483740143196</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01820128803922775</v>
+        <v>0.01717482717663749</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>177</v>
+      </c>
+      <c r="J57" t="n">
+        <v>411</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1171474197.047006</v>
+        <v>1835636237.944752</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1522895499430847</v>
+        <v>0.1441232723839803</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0287113089651069</v>
+        <v>0.03325056919990069</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5315755054.227125</v>
+        <v>4094901613.476337</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1044773020776448</v>
+        <v>0.1098663011706045</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04423480375248113</v>
+        <v>0.03375890081020847</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>201</v>
+      </c>
+      <c r="J59" t="n">
+        <v>410</v>
+      </c>
+      <c r="K59" t="n">
+        <v>43.21200435911698</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3227134680.779655</v>
+        <v>2556957992.974873</v>
       </c>
       <c r="F60" t="n">
-        <v>0.162440658067097</v>
+        <v>0.1617301424338589</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02355181433355669</v>
+        <v>0.03267988470981422</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>76</v>
+      </c>
+      <c r="J60" t="n">
+        <v>410</v>
+      </c>
+      <c r="K60" t="n">
+        <v>35.53976809162052</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2655526572.469163</v>
+        <v>2440499357.286844</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1363622822979121</v>
+        <v>0.1715349313412648</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03085379053085347</v>
+        <v>0.02539679285359987</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1817454709.279495</v>
+        <v>1923927432.777721</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1900746904778645</v>
+        <v>0.1193159032609939</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04512430039775858</v>
+        <v>0.04618749337882386</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5252934877.009074</v>
+        <v>5261669875.40384</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1040698315484911</v>
+        <v>0.08437326224239966</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03897240595888175</v>
+        <v>0.03537455684647406</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>205</v>
+      </c>
+      <c r="J63" t="n">
+        <v>411</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5210784717.255196</v>
+        <v>3489130533.503896</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1832109770261743</v>
+        <v>0.1822572529345054</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02146730625755561</v>
+        <v>0.032782643189211</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>206</v>
+      </c>
+      <c r="J64" t="n">
+        <v>410</v>
+      </c>
+      <c r="K64" t="n">
+        <v>41.05430663759482</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5374523324.037751</v>
+        <v>4077957195.282753</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1182318066541328</v>
+        <v>0.1683117570478466</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0240791497368141</v>
+        <v>0.02034447425881318</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>302</v>
+      </c>
+      <c r="J65" t="n">
+        <v>411</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4804427302.617998</v>
+        <v>5267207653.667502</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1436112544227979</v>
+        <v>0.1440614129940659</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04169289404947779</v>
+        <v>0.04880420468054417</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>203</v>
+      </c>
+      <c r="J66" t="n">
+        <v>410</v>
+      </c>
+      <c r="K66" t="n">
+        <v>43.08935580597618</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2610844601.141881</v>
+        <v>2593864780.440541</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08494317065057147</v>
+        <v>0.09077774232265583</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04014775405723273</v>
+        <v>0.04634764373108294</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5402225140.614367</v>
+        <v>4974690985.524215</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1105146509369465</v>
+        <v>0.09949433609450557</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04234605999601831</v>
+        <v>0.03261748878036849</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>224</v>
+      </c>
+      <c r="J68" t="n">
+        <v>411</v>
+      </c>
+      <c r="K68" t="n">
+        <v>44.76311393966924</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2343712421.207638</v>
+        <v>1915673514.779387</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1350505479888722</v>
+        <v>0.1310436771286768</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05866356518454357</v>
+        <v>0.05631178368026134</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3427259682.223578</v>
+        <v>3318756738.573166</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06224350917356671</v>
+        <v>0.08781678549053767</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03178559111950756</v>
+        <v>0.04053266107966763</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3861266020.986774</v>
+        <v>5416226708.036767</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1736371519732685</v>
+        <v>0.1622783298070074</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03199973413562145</v>
+        <v>0.03070080135674712</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>289</v>
+      </c>
+      <c r="J71" t="n">
+        <v>411</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1441335206.798389</v>
+        <v>2050169561.403853</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1000469062132456</v>
+        <v>0.09749871757700991</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05020730269619553</v>
+        <v>0.04951329468501342</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3165847160.962753</v>
+        <v>2748114004.862544</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09210994491170328</v>
+        <v>0.08279690461143552</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03997396512558706</v>
+        <v>0.03404391208893051</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2864037407.337984</v>
+        <v>3840790459.289878</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1123663881434967</v>
+        <v>0.1289753146216714</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02343725961436684</v>
+        <v>0.0257755830035486</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>116</v>
+      </c>
+      <c r="J74" t="n">
+        <v>411</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2340546597.254079</v>
+        <v>1576340239.297082</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1206805237848597</v>
+        <v>0.1237808831724852</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03153056829769098</v>
+        <v>0.02399093389653277</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3295741909.985842</v>
+        <v>3599287597.826712</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1242040975845356</v>
+        <v>0.08605171729609509</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02116186341177546</v>
+        <v>0.02221529704149267</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>195</v>
+      </c>
+      <c r="J76" t="n">
+        <v>410</v>
+      </c>
+      <c r="K76" t="n">
+        <v>44.09846948440806</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2168460866.356073</v>
+        <v>1435528949.951908</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1872075477029539</v>
+        <v>0.179904224461457</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02781736104077681</v>
+        <v>0.02717816297959269</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4146969302.941</v>
+        <v>3639426697.014215</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1210447114844603</v>
+        <v>0.1065801149809897</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04259222611126898</v>
+        <v>0.05726149302487006</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>205</v>
+      </c>
+      <c r="J78" t="n">
+        <v>411</v>
+      </c>
+      <c r="K78" t="n">
+        <v>44.78254438948611</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1701386954.750348</v>
+        <v>1396433701.870849</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1735339398647089</v>
+        <v>0.1761720295789439</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03948847725290729</v>
+        <v>0.03828390039130603</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5330511681.912604</v>
+        <v>4644972502.372128</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0838383735901586</v>
+        <v>0.08173135405300568</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02826392021514736</v>
+        <v>0.03426860013534143</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>201</v>
+      </c>
+      <c r="J80" t="n">
+        <v>410</v>
+      </c>
+      <c r="K80" t="n">
+        <v>38.0229236972007</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4515260785.918479</v>
+        <v>3286729621.377827</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1250307796817403</v>
+        <v>0.1255721548775025</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02749971404920606</v>
+        <v>0.02778025965037894</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>191</v>
+      </c>
+      <c r="J81" t="n">
+        <v>410</v>
+      </c>
+      <c r="K81" t="n">
+        <v>36.36531137627917</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4232479334.730918</v>
+        <v>3689986738.001386</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1932907172512759</v>
+        <v>0.1612521081403642</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0269463387540263</v>
+        <v>0.02764117807325068</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>280</v>
+      </c>
+      <c r="J82" t="n">
+        <v>410</v>
+      </c>
+      <c r="K82" t="n">
+        <v>43.87236225080993</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2200290459.308691</v>
+        <v>2477223193.748652</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1537910537874769</v>
+        <v>0.1182332050272995</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04150694001962382</v>
+        <v>0.03433655208196831</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1590515318.400531</v>
+        <v>2227936565.533233</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09625342279450308</v>
+        <v>0.0951332477935234</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03680362052865213</v>
+        <v>0.04978791823743137</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3552595271.090741</v>
+        <v>2651740233.835468</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1150047551120135</v>
+        <v>0.139185202056334</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05054726746957893</v>
+        <v>0.05335114242325941</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3481,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2561536279.138453</v>
+        <v>2676341516.609654</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1638423240869418</v>
+        <v>0.14163574233118</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02086727900378263</v>
+        <v>0.02449891351711813</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3516,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1181824365.401782</v>
+        <v>1022920358.225319</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1421959880511709</v>
+        <v>0.1221675412837071</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03795477774587053</v>
+        <v>0.03200318024809709</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2639381395.725163</v>
+        <v>2670575632.970812</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1429509771777993</v>
+        <v>0.1174881715135712</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02729675664172767</v>
+        <v>0.03197507048786723</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2497877058.667997</v>
+        <v>3091540453.856364</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1225716514005167</v>
+        <v>0.1012768302079413</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03064828452280447</v>
+        <v>0.03059760486777899</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1876019735.262699</v>
+        <v>1602454643.867012</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1329513318041364</v>
+        <v>0.1374883581489899</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04455745937912182</v>
+        <v>0.04770256088828905</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1966374605.445148</v>
+        <v>2006664946.672441</v>
       </c>
       <c r="F91" t="n">
-        <v>0.133461186550079</v>
+        <v>0.1321943021026131</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0602724198848844</v>
+        <v>0.04334047417803393</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2235567588.227502</v>
+        <v>2949855828.121526</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09853233151134992</v>
+        <v>0.0908921771827155</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03136391036912402</v>
+        <v>0.03373408897160848</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4062326807.469109</v>
+        <v>4620540481.877677</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1186713177602705</v>
+        <v>0.09182188636300997</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03841872214175347</v>
+        <v>0.04768832600793687</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>196</v>
+      </c>
+      <c r="J93" t="n">
+        <v>411</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1799237971.232404</v>
+        <v>2098231458.395642</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1061309627086453</v>
+        <v>0.1330055377587236</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02720869283066024</v>
+        <v>0.03728488126050889</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2509517954.268881</v>
+        <v>2126607671.8693</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09429073605346143</v>
+        <v>0.09033272361481477</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04155705736687883</v>
+        <v>0.04673238825718947</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2256069231.716148</v>
+        <v>1883974245.255595</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09439983012553342</v>
+        <v>0.1218216522061746</v>
       </c>
       <c r="G96" t="n">
-        <v>0.036706727596613</v>
+        <v>0.03530931934853979</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3483305344.181144</v>
+        <v>3587838480.560161</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1239537562264875</v>
+        <v>0.1402839795146652</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02821954559906613</v>
+        <v>0.0278807381683369</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>214</v>
+      </c>
+      <c r="J97" t="n">
+        <v>411</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2845813547.31182</v>
+        <v>3083518441.301226</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1054694690727662</v>
+        <v>0.08444158394723006</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02621914789675629</v>
+        <v>0.02340820526193594</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2276422264.973208</v>
+        <v>3337842724.900021</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09684382692034697</v>
+        <v>0.1386363439728164</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03362010539043467</v>
+        <v>0.02799468929001315</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4624742286.963399</v>
+        <v>4458221321.668817</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1441360283269265</v>
+        <v>0.1512095869836822</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01906520386848952</v>
+        <v>0.02747079165409899</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>191</v>
+      </c>
+      <c r="J100" t="n">
+        <v>411</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2533231471.712942</v>
+        <v>3399898878.503044</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2057251319449561</v>
+        <v>0.1794831161849687</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04594821849550603</v>
+        <v>0.04493661228840031</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
